--- a/medicine/Enfance/Janine_Teisson/Janine_Teisson.xlsx
+++ b/medicine/Enfance/Janine_Teisson/Janine_Teisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janine Teisson est une romancière française née le 28 octobre 1948 à Toulon[1]. Elle écrit en littérature générale mais également à destination de la jeunesse. Elle vit dans le Sud de la France[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Janine Teisson est une romancière française née le 28 octobre 1948 à Toulon. Elle écrit en littérature générale mais également à destination de la jeunesse. Elle vit dans le Sud de la France.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janine Teisson est née en 1948 à Toulon[1].
-Elle publie, en 1993, son premier roman La Petite Cinglée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Janine Teisson est née en 1948 à Toulon.
+Elle publie, en 1993, son premier roman La Petite Cinglée.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature générale
-Janine Teisson, La Petite Cinglée, Climats, Le Seuil, 1993
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Janine Teisson, La Petite Cinglée, Climats, Le Seuil, 1993
 Janine Teisson, L'Enfant plume (récit), J'ai lu, Chèvre Feuille étoilée, 2000.
 Janine Teisson, Le Règne animal (nouvelles), HB éditions, 1997.
 Janine Teisson, Rouge Rossignol (roman), HB éditions, 2002.
@@ -561,25 +580,93 @@
 Janine Teisson, Le rejet (Policier), Editions Glyphes, avril 2018.
 Janine Teisson, Elles ont aimé un homme plus jeune,  20 biographies de femmes, Editions Glyphe, 2018.
 Janine Teisson, Germaine Tillion, Un long combat pour la paix, Editions Glyphe, 2020.
-Janine Teisson, Martienne ? (roman), Montpellier, Chèvre Feuille Etoilée, 2023, 272 p. (ISBN 9782367951577)[2].
-Poésie
-Janine Teisson (ill. Joanna Concejo), Au clair de la nuit (poèmes jeunesse), Ed. Motus, 2009.
+Janine Teisson, Martienne ? (roman), Montpellier, Chèvre Feuille Etoilée, 2023, 272 p. (ISBN 9782367951577).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Janine_Teisson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janine_Teisson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Janine Teisson (ill. Joanna Concejo), Au clair de la nuit (poèmes jeunesse), Ed. Motus, 2009.
 Janine Teisson, Icare mon amour, Editions Chèvre-feuille étoilée, 2023, 80 p. (ISBN 978-2-36795-160-7)
-Janine Teisson (ill. Marion Béclu), Renaitre, Editions Chèvre-feuille étoilée, 2020.
-Romans pour la jeunesse
-Janine Teisson, Taourama et le lagon bleu, Syros, 1997.
+Janine Teisson (ill. Marion Béclu), Renaitre, Editions Chèvre-feuille étoilée, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Janine_Teisson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janine_Teisson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Janine Teisson, Taourama et le lagon bleu, Syros, 1997.
 Janine Teisson, La Valise oubliée, Syros, 1996.
-Janine Teisson (ill. Thierry Desailly), Une vie de toutes les couleurs, Actes Sud Junior, 1998[4].
-Janine Teisson, Au cinéma LuxPrix Sorcières[5] 1999.
+Janine Teisson (ill. Thierry Desailly), Une vie de toutes les couleurs, Actes Sud Junior, 1998.
+Janine Teisson, Au cinéma LuxPrix Sorcières 1999.
 Janine Teisson, Les prisonniers d'Icibas, Syros, 2000.
 Janine Teisson, Marion la jalouse, Bayard Poche, 2002.
-Janine Teisson, Les Rois de l'horizon, Syros, 2002Prix Sésame[6] 2003.
+Janine Teisson, Les Rois de l'horizon, Syros, 2002Prix Sésame 2003.
 Janine Teisson, Histoires de cœurs, Actes Sud Junior, 2003.
 Janine Teisson, Mamy Loup, Actes Sud Junior, 2003.
 Janine Teisson, La petite pierre de Chine, Actes Sud Junior, 2004.
 Janine Teisson, Le Petit Soleil jaune, 2004
 Janine Teisson, Safari en sous-sol, Actes Sud Junior, 2005.
-Janine Teisson, Écoute mon cœur, Syros, 2006Prix de la NRP[7].
+Janine Teisson, Écoute mon cœur, Syros, 2006Prix de la NRP.
 Janine Teisson, Amoureuse, Syros, 2007.
 Janine Teisson, Le criquet qui se croyait très malin, Gulf Stream, 2007.
 Janine Teisson, Prométhée le révolté, Nathan, 2006.
@@ -596,35 +683,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Janine_Teisson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Janine_Teisson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Sorcières[5] 1999, catégorie Roman adolescent, pour Au cinéma Lux ;
-Prix Sésame[6] 2003 pour Les rois de l'horizon ;
-Prix de la NRP[7] en 2006 pour Écoute mon cœur.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Sorcières 1999, catégorie Roman adolescent, pour Au cinéma Lux ;
+Prix Sésame 2003 pour Les rois de l'horizon ;
+Prix de la NRP en 2006 pour Écoute mon cœur.</t>
         </is>
       </c>
     </row>
